--- a/StructureDefinition-Immunization-uc1.xlsx
+++ b/StructureDefinition-Immunization-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="157">
   <si>
     <t>Path</t>
   </si>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>Immunization.protocol.doseNumber</t>
+  </si>
+  <si>
+    <t>integer
+string</t>
   </si>
   <si>
     <t>Dose Number</t>
@@ -3326,13 +3330,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3406,7 +3410,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3429,13 +3433,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3486,7 +3490,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3509,7 +3513,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3535,10 +3539,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3589,7 +3593,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3612,7 +3616,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3638,10 +3642,10 @@
         <v>71</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3692,7 +3696,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -3715,7 +3719,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3741,10 +3745,10 @@
         <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3795,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -3818,7 +3822,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3844,10 +3848,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3898,7 +3902,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -3921,7 +3925,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3935,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -3944,13 +3948,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4001,7 +4005,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4024,7 +4028,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4047,13 +4051,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4104,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-Immunization-uc1.xlsx
+++ b/StructureDefinition-Immunization-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="175">
   <si>
     <t>Path</t>
   </si>
@@ -240,7 +240,7 @@
     <t>Immunization.status</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -254,23 +254,25 @@
     <t>Immunization.reasonNotGiven</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Reason not done [ADDED]</t>
+    <t>Reason not done</t>
   </si>
   <si>
     <t>Indicates the reason the immunization event was not performed.</t>
   </si>
   <si>
+    <t>Immunization.statusReason</t>
+  </si>
+  <si>
     <t>Immunization.indication</t>
   </si>
   <si>
-    <t>Why immunization occurred [ADDED]</t>
+    <t>Why immunization occurred</t>
   </si>
   <si>
     <t>Indicates the reason the immunization event was performed.</t>
+  </si>
+  <si>
+    <t>Immunization.reasonCode</t>
   </si>
   <si>
     <t>Immunization.targetDisease</t>
@@ -284,10 +286,13 @@
 The disease can be derived or inferred from the Immunizing Agent and/or Medicinal Immunizing Product, therefore optional</t>
   </si>
   <si>
-    <t>Immunization.vaccineType</t>
-  </si>
-  <si>
-    <t>Vaccine type (prophylaxis, generic immunizing Agent)</t>
+    <t>Immunization.protocolApplied.targetDisease</t>
+  </si>
+  <si>
+    <t>Immunization.immunizingAgent</t>
+  </si>
+  <si>
+    <t>Generic immunizing Agent (Vaccine type, prophylaxis)</t>
   </si>
   <si>
     <t>Generic representation of the formulation administered to a subject that includes one or more specific antigen(s) aimed at developing an immune response in an individual to provide protection from a vaccine preventable disease(s). 
@@ -295,6 +300,9 @@
 This data element is required when the trade name is not known (such as a recording of an immunizing event that took place in the past) Because the Immunizing Agent can be derived from Medicinal Immunizing Product it is optional IF the Administrable Immunizing Agent is provided.</t>
   </si>
   <si>
+    <t>Immunization.vaccineCode</t>
+  </si>
+  <si>
     <t>Immunization.subject</t>
   </si>
   <si>
@@ -308,10 +316,16 @@
     <t>Person that have or should have been vaccinated</t>
   </si>
   <si>
+    <t>Immunization.patient</t>
+  </si>
+  <si>
     <t>Immunization.product</t>
   </si>
   <si>
-    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product-uc1
 </t>
   </si>
   <si>
@@ -346,6 +360,9 @@
 Jurisdictions may have different business rules for dealing with partial or estimated dates when complete dates are not known.</t>
   </si>
   <si>
+    <t>Immunization.occurrenceDateTime</t>
+  </si>
+  <si>
     <t>Immunization.administration.date.estimated</t>
   </si>
   <si>
@@ -369,6 +386,9 @@
     <t>Quantity of the dose administered; (e.g., influenza dose is 0.25 or 0.5).</t>
   </si>
   <si>
+    <t>Immunization.doseQuantity</t>
+  </si>
+  <si>
     <t>Immunization.administration.routeOfAdministration</t>
   </si>
   <si>
@@ -379,6 +399,9 @@
 Assists with management reporting such as adverse event management (e.g., was the correct route of administration used).  (intramuscular injection, subcutaneous injection, oral, etc.).</t>
   </si>
   <si>
+    <t>Immunization.route</t>
+  </si>
+  <si>
     <t>Immunization.administration.site</t>
   </si>
   <si>
@@ -389,6 +412,9 @@
 It is important to record where the Medicinal Immunizing Product was delivered to the body in the event of a reported local reaction to a vaccine.  When multiple agents are administered to multiple sites on the body, anatomical site helps determine which vaccine may have been responsible.</t>
   </si>
   <si>
+    <t>Immunization.site</t>
+  </si>
+  <si>
     <t>Immunization.administration.performer</t>
   </si>
   <si>
@@ -402,6 +428,9 @@
     <t>The person who is medically responsible for the decision to administer an immunization product.</t>
   </si>
   <si>
+    <t>Immunization.performer</t>
+  </si>
+  <si>
     <t>Immunization.administration.administrationCenter</t>
   </si>
   <si>
@@ -428,6 +457,9 @@
     <t>The location where the immunization occurred is a further specification of the Organization responsible for Immunization Administration.</t>
   </si>
   <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
     <t>Immunization.administration.country</t>
   </si>
   <si>
@@ -437,6 +469,9 @@
     <t>The country in which the individual has been immunized person.</t>
   </si>
   <si>
+    <t>Location.address.country</t>
+  </si>
+  <si>
     <t>Immunization.protocol</t>
   </si>
   <si>
@@ -446,22 +481,31 @@
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
   </si>
   <si>
+    <t>Immunization.protocolApplied</t>
+  </si>
+  <si>
     <t>Immunization.protocol.doseNumber</t>
   </si>
   <si>
-    <t>integer
-string</t>
+    <t xml:space="preserve">integer
+</t>
   </si>
   <si>
     <t>Dose Number</t>
   </si>
   <si>
+    <t>Immunization.protocolApplied.doseNumber[x]</t>
+  </si>
+  <si>
     <t>Immunization.protocol.seriesDoseNumber</t>
   </si>
   <si>
     <t>Series Dose Number</t>
   </si>
   <si>
+    <t>Immunization.protocolApplied.seriesDoses[x]</t>
+  </si>
+  <si>
     <t>Immunization.reaction</t>
   </si>
   <si>
@@ -469,6 +513,10 @@
   </si>
   <si>
     <t>Immunization.reaction.reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Adverse Reaction Following Immunization</t>
@@ -498,17 +546,20 @@
 Example: Rash, Hives</t>
   </si>
   <si>
+    <t>Immunization.reaction.detail</t>
+  </si>
+  <si>
     <t>Immunization.forecast</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Forecast
+    <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Forecast-uc1
 </t>
   </si>
   <si>
     <t>Subject's immunization forecast</t>
+  </si>
+  <si>
+    <t>ImmunizationRecommendation</t>
   </si>
   <si>
     <t>Immunization.notes</t>
@@ -522,6 +573,9 @@
   </si>
   <si>
     <t>The note is specific to the immunization event, agent or antigen.</t>
+  </si>
+  <si>
+    <t>Immunization.note</t>
   </si>
 </sst>
 </file>
@@ -714,7 +768,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="16.37109375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="43.41015625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1239,7 +1293,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1361,7 +1415,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>38</v>
@@ -1436,7 +1490,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>38</v>
@@ -1445,7 +1499,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>38</v>
@@ -1476,13 +1530,13 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1548,7 +1602,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -1579,7 +1633,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>79</v>
@@ -1651,7 +1705,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1659,7 +1713,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1667,7 +1721,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>42</v>
@@ -1682,13 +1736,13 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1739,7 +1793,7 @@
         <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1754,7 +1808,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1762,7 +1816,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1785,13 +1839,13 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1842,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1857,7 +1911,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1865,7 +1919,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1873,10 +1927,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>38</v>
@@ -1888,13 +1942,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1945,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -1960,15 +2014,15 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1976,13 +2030,13 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -1991,13 +2045,13 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2048,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2063,7 +2117,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2071,7 +2125,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2097,10 +2151,10 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2151,7 +2205,7 @@
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2166,7 +2220,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2174,7 +2228,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2200,10 +2254,10 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2254,7 +2308,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2277,7 +2331,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2303,10 +2357,10 @@
         <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2357,7 +2411,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2372,7 +2426,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2380,7 +2434,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2406,10 +2460,10 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2460,7 +2514,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2483,7 +2537,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2506,13 +2560,13 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2563,7 +2617,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2578,7 +2632,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2586,7 +2640,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2609,13 +2663,13 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2666,7 +2720,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2681,7 +2735,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2689,7 +2743,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2712,13 +2766,13 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2769,7 +2823,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2784,7 +2838,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -2792,7 +2846,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2815,13 +2869,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2872,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -2887,7 +2941,7 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -2895,7 +2949,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2918,13 +2972,13 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2975,7 +3029,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -2990,7 +3044,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -2998,7 +3052,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3021,13 +3075,13 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3078,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3093,7 +3147,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3101,7 +3155,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3124,13 +3178,13 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3181,7 +3235,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3196,7 +3250,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3204,7 +3258,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3230,10 +3284,10 @@
         <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3284,7 +3338,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3299,7 +3353,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3307,7 +3361,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3330,13 +3384,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3387,7 +3441,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3402,7 +3456,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3410,7 +3464,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3433,13 +3487,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3490,7 +3544,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3505,7 +3559,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3513,7 +3567,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3539,10 +3593,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3593,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3608,7 +3662,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3616,7 +3670,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3639,13 +3693,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3696,7 +3750,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -3711,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3719,7 +3773,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3745,10 +3799,10 @@
         <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3799,7 +3853,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -3814,7 +3868,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -3822,7 +3876,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3848,10 +3902,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3902,7 +3956,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -3917,7 +3971,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -3925,7 +3979,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3939,7 +3993,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -3948,13 +4002,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4005,7 +4059,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4020,7 +4074,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4028,7 +4082,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4051,13 +4105,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4108,7 +4162,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4123,7 +4177,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-Immunization-uc1.xlsx
+++ b/StructureDefinition-Immunization-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="176">
   <si>
     <t>Path</t>
   </si>
@@ -230,7 +230,7 @@
 </t>
   </si>
   <si>
-    <t>Immunization Reporting Source</t>
+    <t>[R] Immunization Reporting Source</t>
   </si>
   <si>
     <t>Source of information regarding the reported immunization event.
@@ -278,7 +278,7 @@
     <t>Immunization.targetDisease</t>
   </si>
   <si>
-    <t>Vaccine Preventable Disease</t>
+    <t>[R] Vaccine Preventable Disease</t>
   </si>
   <si>
     <t>The disease that the vaccination provides protection against.
@@ -310,7 +310,7 @@
 </t>
   </si>
   <si>
-    <t>Subject</t>
+    <t>[O] Subject</t>
   </si>
   <si>
     <t>Person that have or should have been vaccinated</t>
@@ -329,7 +329,7 @@
 </t>
   </si>
   <si>
-    <t>Medicinal Immunizing Product</t>
+    <t>[O] Medicinal Immunizing Product</t>
   </si>
   <si>
     <t>A manufactured product that is a representation of a brand specific Immunizing Agent authorized for use in a jurisdiction.  
@@ -392,7 +392,7 @@
     <t>Immunization.administration.routeOfAdministration</t>
   </si>
   <si>
-    <t>Immunization Route of Administration</t>
+    <t>[R] Immunization Route of Administration</t>
   </si>
   <si>
     <t>Route by which the Medicinal Immunizing Product was administered to the body.
@@ -405,7 +405,7 @@
     <t>Immunization.administration.site</t>
   </si>
   <si>
-    <t>Immunization Anatomical Site</t>
+    <t>[R] Immunization Anatomical Site</t>
   </si>
   <si>
     <t>The body location to or through which a Medicinal Immunizing Product was administered.
@@ -422,7 +422,7 @@
 </t>
   </si>
   <si>
-    <t>Health Care Worker Responsible for Immunization Administration</t>
+    <t>[R] Health Care Worker Responsible for Immunization Administration</t>
   </si>
   <si>
     <t>The person who is medically responsible for the decision to administer an immunization product.</t>
@@ -438,7 +438,7 @@
 </t>
   </si>
   <si>
-    <t>Organization responsible for Immunization Administration</t>
+    <t>[R] Organization responsible for Immunization Administration</t>
   </si>
   <si>
     <t>The health authority responsible for the immunization event.</t>
@@ -451,7 +451,7 @@
 </t>
   </si>
   <si>
-    <t>Location of Immunization Administration</t>
+    <t>[R] Location of Immunization Administration</t>
   </si>
   <si>
     <t>The location where the immunization occurred is a further specification of the Organization responsible for Immunization Administration.</t>
@@ -463,7 +463,7 @@
     <t>Immunization.administration.country</t>
   </si>
   <si>
-    <t>Country of Immunization</t>
+    <t>[R] Country of Immunization</t>
   </si>
   <si>
     <t>The country in which the individual has been immunized person.</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t>Adverse Reaction Following Immunization</t>
+    <t>[R] Adverse Reaction Following Immunization</t>
   </si>
   <si>
     <t>A flag to identify an adverse reaction was reported following administration of a Medicinal Immunizing Product. 
@@ -529,7 +529,7 @@
     <t>Immunization.reaction.date</t>
   </si>
   <si>
-    <t>Adverse Reaction date</t>
+    <t>[R] Adverse Reaction date</t>
   </si>
   <si>
     <t>The date the Adverse Reaction Following Immunization occurred.
@@ -539,7 +539,7 @@
     <t>Immunization.reaction.manifestation</t>
   </si>
   <si>
-    <t>Adverse Reaction manifestation</t>
+    <t>[R] Adverse Reaction manifestation</t>
   </si>
   <si>
     <t>Indicates the specific type of Adverse Reaction Following Immunization that occurred. 
@@ -554,6 +554,9 @@
   <si>
     <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Forecast-uc1
 </t>
+  </si>
+  <si>
+    <t>[M] Subject's immunization forecast</t>
   </si>
   <si>
     <t>Subject's immunization forecast</t>
@@ -743,7 +746,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4008,7 +4011,7 @@
         <v>168</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4074,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4082,7 +4085,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4105,13 +4108,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4162,7 +4165,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4177,7 +4180,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-Immunization-uc1.xlsx
+++ b/StructureDefinition-Immunization-uc1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="179">
   <si>
     <t>Path</t>
   </si>
@@ -292,7 +292,10 @@
     <t>Immunization.immunizingAgent</t>
   </si>
   <si>
-    <t>Generic immunizing Agent (Vaccine type, prophylaxis)</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>[M] Generic immunizing Agent (Vaccine type, prophylaxis)</t>
   </si>
   <si>
     <t>Generic representation of the formulation administered to a subject that includes one or more specific antigen(s) aimed at developing an immune response in an individual to provide protection from a vaccine preventable disease(s). 
@@ -310,7 +313,7 @@
 </t>
   </si>
   <si>
-    <t>[O] Subject</t>
+    <t>[M] Subject</t>
   </si>
   <si>
     <t>Person that have or should have been vaccinated</t>
@@ -320,16 +323,13 @@
   </si>
   <si>
     <t>Immunization.product</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">http://iso.org/fhir/ts-5384/StructureDefinition/Product-uc1
 </t>
   </si>
   <si>
-    <t>[O] Medicinal Immunizing Product</t>
+    <t>[M] Medicinal Immunizing Product</t>
   </si>
   <si>
     <t>A manufactured product that is a representation of a brand specific Immunizing Agent authorized for use in a jurisdiction.  
@@ -340,13 +340,16 @@
     <t>Immunization.administration</t>
   </si>
   <si>
+    <t>[RK] Immunization Administration</t>
+  </si>
+  <si>
     <t>Immunization Administration</t>
   </si>
   <si>
     <t>Immunization.administration.date</t>
   </si>
   <si>
-    <t>Date of Immunization Administration</t>
+    <t>[RK] Date of Immunization Administration</t>
   </si>
   <si>
     <t>The date the Medicinal Immunizing Product was administered to the person.</t>
@@ -366,7 +369,7 @@
     <t>Immunization.administration.date.estimated</t>
   </si>
   <si>
-    <t>Estimated Date Flag</t>
+    <t>[RK] Estimated Date Flag</t>
   </si>
   <si>
     <t>A flag to indicate the Date of Immunization Administration was estimated.   
@@ -475,7 +478,7 @@
     <t>Immunization.protocol</t>
   </si>
   <si>
-    <t>Protocol applied</t>
+    <t>[R] Protocol applied</t>
   </si>
   <si>
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
@@ -491,6 +494,9 @@
 </t>
   </si>
   <si>
+    <t>[R] Dose Number</t>
+  </si>
+  <si>
     <t>Dose Number</t>
   </si>
   <si>
@@ -507,6 +513,9 @@
   </si>
   <si>
     <t>Immunization.reaction</t>
+  </si>
+  <si>
+    <t>[R] Adverse Reaction</t>
   </si>
   <si>
     <t>Adverse Reaction</t>
@@ -1817,7 +1826,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>86</v>
       </c>
@@ -1827,13 +1836,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1845,10 +1854,10 @@
         <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1914,15 +1923,15 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1930,13 +1939,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -1945,13 +1954,13 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2002,7 +2011,7 @@
         <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2017,7 +2026,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2025,7 +2034,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2039,7 +2048,7 @@
         <v>42</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2105,7 +2114,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2120,13 +2129,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>100</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2157,7 +2166,7 @@
         <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2229,9 +2238,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2245,7 +2254,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2257,10 +2266,10 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2311,7 +2320,7 @@
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2332,9 +2341,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2348,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2360,10 +2369,10 @@
         <v>63</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2414,7 +2423,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2429,15 +2438,15 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2451,7 +2460,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2463,10 +2472,10 @@
         <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2517,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2540,7 +2549,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2563,13 +2572,13 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2620,7 +2629,7 @@
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2635,7 +2644,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2643,7 +2652,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2669,10 +2678,10 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2723,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -2738,7 +2747,7 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2746,7 +2755,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2772,10 +2781,10 @@
         <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2826,7 +2835,7 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2841,7 +2850,7 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -2849,7 +2858,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2872,13 +2881,13 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2929,7 +2938,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -2944,7 +2953,7 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -2952,7 +2961,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2975,13 +2984,13 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3032,22 +3041,22 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3055,7 +3064,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3078,13 +3087,13 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3135,7 +3144,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3150,7 +3159,7 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3158,7 +3167,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3184,10 +3193,10 @@
         <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3238,7 +3247,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3253,7 +3262,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -3261,7 +3270,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3269,7 +3278,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>39</v>
@@ -3287,10 +3296,10 @@
         <v>67</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3341,7 +3350,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3356,7 +3365,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
@@ -3364,7 +3373,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3372,7 +3381,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>39</v>
@@ -3387,13 +3396,13 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3444,7 +3453,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3459,7 +3468,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -3467,7 +3476,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3490,13 +3499,13 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3547,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -3562,7 +3571,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -3570,7 +3579,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3578,7 +3587,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>42</v>
@@ -3596,10 +3605,10 @@
         <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3650,7 +3659,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -3665,7 +3674,7 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
@@ -3673,7 +3682,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3696,13 +3705,13 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3753,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -3768,7 +3777,7 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -3776,7 +3785,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3802,10 +3811,10 @@
         <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3856,7 +3865,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -3871,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -3879,7 +3888,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3905,10 +3914,10 @@
         <v>67</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3959,7 +3968,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -3974,7 +3983,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -3982,7 +3991,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3996,7 +4005,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4005,13 +4014,13 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4062,7 +4071,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4077,7 +4086,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -4085,7 +4094,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4108,13 +4117,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4165,7 +4174,7 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4180,7 +4189,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
